--- a/BPM组件需求整理.xlsx
+++ b/BPM组件需求整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25220" windowHeight="9660" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="母版" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>大分类</t>
   </si>
@@ -285,9 +285,6 @@
     <t>v-textfield支持字数限制、报错、placeholder、后缀功能</t>
   </si>
   <si>
-    <t>只读需要使用disabled属性，可能需要自实现</t>
-  </si>
-  <si>
     <t>规则校验需要自实现</t>
   </si>
   <si>
@@ -413,9 +410,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -428,7 +425,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,23 +447,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,8 +474,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,52 +485,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,7 +500,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,15 +536,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,12 +615,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -636,169 +717,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,15 +864,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -886,6 +874,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -907,36 +945,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -950,99 +958,88 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1051,7 +1048,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,56 +1057,56 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1132,9 +1129,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1889,10 +1883,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1917,7 +1911,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1934,24 +1928,30 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:5">
       <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:5">
       <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>84</v>
       </c>
@@ -1959,513 +1959,501 @@
     <row r="5" ht="17" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" ht="17" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" ht="17" spans="1:5">
       <c r="A8" s="6"/>
       <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" ht="17" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="14" t="s">
-        <v>86</v>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>86</v>
+        <v>25</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="17" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" ht="17" spans="1:5">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:5">
       <c r="A13" s="6"/>
-      <c r="B13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:5">
       <c r="A14" s="6"/>
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:5">
       <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="14" t="s">
-        <v>93</v>
+      <c r="B15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" ht="17" spans="1:5">
       <c r="A17" s="6"/>
-      <c r="B17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="B17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:5">
       <c r="A18" s="6"/>
-      <c r="B18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" ht="17" spans="1:5">
       <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="12" t="s">
+      <c r="B19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" ht="17" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" ht="17" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:5">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:5">
-      <c r="A23" s="7"/>
+      <c r="A23" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="B23" s="8" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="A24" s="6"/>
       <c r="B24" s="8" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:5">
       <c r="A25" s="6"/>
-      <c r="B25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>54</v>
+      <c r="B25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:5">
       <c r="A26" s="6"/>
-      <c r="B26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" ht="17" spans="1:5">
       <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="E27" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" ht="34" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="1:5">
       <c r="A28" s="6"/>
-      <c r="B28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" ht="17" spans="1:5">
       <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="E29" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:5">
       <c r="A30" s="6"/>
-      <c r="B30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31" ht="17" spans="1:5">
       <c r="A31" s="6"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:5">
-      <c r="A32" s="6"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="13" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" ht="17" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="13" t="s">
+    <row r="33" ht="34" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:5">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="34" ht="34" spans="1:5">
-      <c r="A34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" ht="17" spans="1:5">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="D35" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>116</v>
+        <v>73</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36" ht="17" spans="1:5">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D36" s="8"/>
       <c r="E36" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" ht="17" spans="1:5">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="13" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:5">
       <c r="A38" s="6"/>
-      <c r="B38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="12" t="s">
+      <c r="B38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" ht="17" spans="1:5">
       <c r="A39" s="6"/>
-      <c r="B39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" ht="17" spans="1:5">
-      <c r="A40" s="6"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="14" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" ht="17" spans="1:5">
-      <c r="A41" s="7"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D39:D41"/>
+  <mergeCells count="24">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D38:D40"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2496,13 +2484,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/BPM组件需求整理.xlsx
+++ b/BPM组件需求整理.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="母版" sheetId="4" r:id="rId1"/>
     <sheet name="Vuetify" sheetId="3" r:id="rId2"/>
     <sheet name="ElementUI" sheetId="2" r:id="rId3"/>
+    <sheet name="自定义对话框" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
   <si>
     <t>大分类</t>
   </si>
@@ -318,260 +319,252 @@
     <t>v-overlay + v-progress-circular</t>
   </si>
   <si>
+    <t>跳转指定页面需开发</t>
+  </si>
+  <si>
+    <t>v-tabs</t>
+  </si>
+  <si>
+    <t>v-treeview</t>
+  </si>
+  <si>
+    <t>v-timeline</t>
+  </si>
+  <si>
+    <t>v-icon</t>
+  </si>
+  <si>
+    <t>行列布局</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>比较自由的水平、垂直布局</t>
+  </si>
+  <si>
+    <t>v-layout</t>
+  </si>
+  <si>
+    <t>v-form + v-layout + v-container</t>
+  </si>
+  <si>
+    <t>展示表单等其他元素，可折叠</t>
+  </si>
+  <si>
+    <t>v-expansion-panel较合适</t>
+  </si>
+  <si>
+    <t>v-dialog</t>
+  </si>
+  <si>
+    <t>alert等图标需要自实现</t>
+  </si>
+  <si>
+    <t>基本组件：v-simple-table，可实现多选</t>
+  </si>
+  <si>
+    <t>翻页：依赖v-pagination，直接跳转指定页面需要自实现</t>
+  </si>
+  <si>
+    <t>v-treeview + v-layout + v-list，自实现</t>
+  </si>
+  <si>
+    <t>v-button-toggle</t>
+  </si>
+  <si>
+    <t>整体布局：v-app，固定的drawer-bar-footer布局</t>
+  </si>
+  <si>
+    <t>导航栏展示：v-app-bar</t>
+  </si>
+  <si>
+    <t>加签转办提交驳回等：自实现</t>
+  </si>
+  <si>
+    <t>简介/功能</t>
+  </si>
+  <si>
+    <t>ElementUI可否实现</t>
+  </si>
+  <si>
+    <t>实现方式</t>
+  </si>
+  <si>
+    <t>可能的翻页；行内编辑；排序；格选中事件；行选中事件；行双击事件；行多选事件；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨端兼容方案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vuetify组件自适应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端横向布局，移动端纵向布局
+需调整标题位置及大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要单独封装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-popup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>v-paginations</t>
-  </si>
-  <si>
-    <t>跳转指定页面需开发</t>
-  </si>
-  <si>
-    <t>v-tabs</t>
-  </si>
-  <si>
-    <t>v-treeview</t>
-  </si>
-  <si>
-    <t>v-timeline</t>
-  </si>
-  <si>
-    <t>v-icon</t>
-  </si>
-  <si>
-    <t>行列布局</t>
-  </si>
-  <si>
-    <t>layout</t>
-  </si>
-  <si>
-    <t>比较自由的水平、垂直布局</t>
-  </si>
-  <si>
-    <t>v-layout</t>
-  </si>
-  <si>
-    <t>v-form + v-layout + v-container</t>
-  </si>
-  <si>
-    <t>展示表单等其他元素，可折叠</t>
-  </si>
-  <si>
-    <t>v-expansion-panel较合适</t>
-  </si>
-  <si>
-    <t>或v-card</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到指定页功能移动端不需要，PC端需要单独封装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vuetify组件自适应，可能需要调整业务逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使用v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-layout，PC和移动端布局可能不太一致</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PC端使用v-expansion,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移动端建议单独封装</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>简单对话框功能提示；选择对话框；自定义内容对话框；alert、warning、info、error、confirm等</t>
-  </si>
-  <si>
-    <t>v-dialog</t>
-  </si>
-  <si>
-    <t>alert等图标需要自实现</t>
-  </si>
-  <si>
-    <t>基本组件：v-simple-table，可实现多选</t>
-  </si>
-  <si>
-    <t>翻页：依赖v-pagination，直接跳转指定页面需要自实现</t>
-  </si>
-  <si>
-    <t>行内编辑：自实现</t>
-  </si>
-  <si>
-    <t>各种选中、双击事件：自实现；</t>
-  </si>
-  <si>
-    <t>v-treeview + v-layout + v-list，自实现</t>
-  </si>
-  <si>
-    <t>v-button-toggle</t>
-  </si>
-  <si>
-    <t>整体布局：v-app，固定的drawer-bar-footer布局</t>
-  </si>
-  <si>
-    <t>导航栏展示：v-app-bar</t>
-  </si>
-  <si>
-    <t>加签转办提交驳回等：自实现</t>
-  </si>
-  <si>
-    <t>简介/功能</t>
-  </si>
-  <si>
-    <t>ElementUI可否实现</t>
-  </si>
-  <si>
-    <t>实现方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单对话框vuetify组件自适应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义对话框需要两端单独封装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对BPM流程的使用场景，希望把流程中所有的对话框抽象成若干固定的UI组件，组件本身实现PC、移动自适应，</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选组织</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不带搜索的普通高级选择框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>带搜索的普通高级选择框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义对话框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于发票管理流程中选择订单行项目信息高级选择框，需要对对话框内容自定义且需要两端显示逻辑不一致
+解决方案
+1：同一个页面，使用slot属性，针对不同终端套用不同的展示逻辑
+2.开发者使用两个对话框，根据终端类型决定弹出对应子页面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程操作类对话框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对开发者黑盒，主要有提交、加签、转办、驳回、通知，其中提交对话框比较复杂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持行选中（含多选）事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格选中事件；行双击事件;行内编辑需要考虑其他方式实现对应的业务逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过自定义对话框实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>依赖a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rcheer-attachment实现</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -587,8 +580,38 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,192 +638,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -860,253 +721,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1116,13 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1143,58 +756,54 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1202,6 +811,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>446226</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>18310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963150" y="438150"/>
+          <a:ext cx="11600001" cy="5923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1485,19 +1137,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D29"/>
+      <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -1505,7 +1157,7 @@
     <col min="4" max="4" width="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -1545,7 +1197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1557,7 +1209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1569,7 +1221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -1581,7 +1233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -1589,7 +1241,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -1599,7 +1251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -1611,7 +1263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
@@ -1623,7 +1275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>29</v>
@@ -1635,7 +1287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -1647,7 +1299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>34</v>
@@ -1657,7 +1309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -1669,7 +1321,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>39</v>
@@ -1679,7 +1331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -1691,7 +1343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>44</v>
@@ -1703,7 +1355,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -1715,7 +1367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -1725,7 +1377,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -1739,7 +1391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" ht="17" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>55</v>
@@ -1751,7 +1403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>58</v>
@@ -1764,7 +1416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>61</v>
@@ -1776,7 +1428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -1793,7 +1445,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>69</v>
@@ -1803,7 +1455,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>71</v>
@@ -1815,7 +1467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>74</v>
@@ -1825,7 +1477,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>76</v>
@@ -1837,7 +1489,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>79</v>
@@ -1849,56 +1501,56 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="11.7019230769231" customWidth="1"/>
-    <col min="3" max="3" width="26.5384615384615" customWidth="1"/>
-    <col min="4" max="4" width="61.8557692307692" customWidth="1"/>
-    <col min="5" max="5" width="73.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="61.875" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="73.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1911,572 +1563,657 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:5">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" ht="17" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="11" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" ht="17" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" ht="17" spans="1:5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" ht="17" spans="1:5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" ht="17" spans="1:5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" ht="17" spans="1:5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" ht="17" spans="1:5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="1:5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" ht="17" spans="1:5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" ht="17" spans="1:5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" ht="17" spans="1:5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" ht="17" spans="1:5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" ht="17" spans="1:5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" ht="17" spans="1:5">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" ht="17" spans="1:5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="11" t="s">
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" ht="17" spans="1:5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="13" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" ht="17" spans="1:5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="11" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" ht="17" spans="1:5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="13" t="s">
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" ht="17" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="13" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" ht="17" spans="1:5">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="12" t="s">
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" ht="17" spans="1:5">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="13" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" ht="17" spans="1:5">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="11" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" ht="17" spans="1:5">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="12" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" ht="17" spans="1:5">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="12" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" ht="17" spans="1:5">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="13" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" ht="17" spans="1:5">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="11" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" ht="17" spans="1:5">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="12" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" ht="17" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="12" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" ht="34" spans="1:5">
-      <c r="A33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" ht="17" spans="1:5">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" ht="17" spans="1:5">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" ht="17" spans="1:5">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" ht="17" spans="1:5">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" ht="17" spans="1:5">
-      <c r="A38" s="6"/>
-      <c r="B38" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" ht="17" spans="1:5">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" ht="17" spans="1:5">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="21">
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C26:C27"/>
     <mergeCell ref="A2:A22"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A32:A39"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B37:B39"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="96" verticalDpi="96" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="73.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2484,142 +2221,142 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2627,7 +2364,72 @@
       <c r="E20" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="100.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/BPM组件需求整理.xlsx
+++ b/BPM组件需求整理.xlsx
@@ -725,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -795,6 +795,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1537,7 +1540,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1989,7 +1992,7 @@
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="26" t="s">
         <v>133</v>
       </c>
       <c r="F27" s="10" t="s">
@@ -2030,7 +2033,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="23"/>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="27" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2040,7 +2043,7 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="27" t="s">
         <v>145</v>
       </c>
     </row>
